--- a/DataTyskland.xlsx
+++ b/DataTyskland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4888A982-46A9-4848-AD0B-C5D38A2BAA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B193AEE-0B6D-434C-B61B-603DCD0CFEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="15560" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +442,11 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -479,6 +484,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,8 +873,8 @@
       <c r="A2" s="2">
         <v>36526</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="13">
+        <v>1.4</v>
       </c>
       <c r="C2" s="1">
         <v>10.1</v>
@@ -899,8 +905,8 @@
       <c r="A3" s="2">
         <v>36617</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.5</v>
+      <c r="B3" s="13">
+        <v>0.8</v>
       </c>
       <c r="C3" s="1">
         <v>9.5</v>
@@ -931,8 +937,8 @@
       <c r="A4" s="2">
         <v>36708</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.2</v>
+      <c r="B4" s="13">
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>9.5</v>
@@ -963,8 +969,8 @@
       <c r="A5" s="2">
         <v>36800</v>
       </c>
-      <c r="B5" s="1">
-        <v>-0.1</v>
+      <c r="B5" s="13">
+        <v>-0.3</v>
       </c>
       <c r="C5" s="1">
         <v>9.3000000000000007</v>
@@ -995,8 +1001,8 @@
       <c r="A6" s="2">
         <v>36892</v>
       </c>
-      <c r="B6" s="1">
-        <v>2.5</v>
+      <c r="B6" s="13">
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>9.3000000000000007</v>
@@ -1027,8 +1033,8 @@
       <c r="A7" s="2">
         <v>36982</v>
       </c>
-      <c r="B7" s="1">
-        <v>-0.1</v>
+      <c r="B7" s="13">
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>9.3000000000000007</v>
@@ -1059,8 +1065,8 @@
       <c r="A8" s="2">
         <v>37073</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.5</v>
+      <c r="B8" s="13">
+        <v>-0.2</v>
       </c>
       <c r="C8" s="1">
         <v>9.3000000000000007</v>
@@ -1091,8 +1097,8 @@
       <c r="A9" s="2">
         <v>37165</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.9</v>
+      <c r="B9" s="13">
+        <v>-0.1</v>
       </c>
       <c r="C9" s="1">
         <v>9.6</v>
@@ -1123,8 +1129,8 @@
       <c r="A10" s="2">
         <v>37257</v>
       </c>
-      <c r="B10" s="1">
-        <v>-0.4</v>
+      <c r="B10" s="13">
+        <v>-0.5</v>
       </c>
       <c r="C10" s="1">
         <v>9.6</v>
@@ -1155,8 +1161,8 @@
       <c r="A11" s="2">
         <v>37347</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
+      <c r="B11" s="13">
+        <v>0.4</v>
       </c>
       <c r="C11" s="1">
         <v>9.6999999999999993</v>
@@ -1187,8 +1193,8 @@
       <c r="A12" s="2">
         <v>37438</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.4</v>
+      <c r="B12" s="13">
+        <v>0.5</v>
       </c>
       <c r="C12" s="1">
         <v>9.8000000000000007</v>
@@ -1219,8 +1225,8 @@
       <c r="A13" s="2">
         <v>37530</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.1</v>
+      <c r="B13" s="13">
+        <v>-0.1</v>
       </c>
       <c r="C13" s="1">
         <v>10.1</v>
@@ -1251,8 +1257,8 @@
       <c r="A14" s="2">
         <v>37622</v>
       </c>
-      <c r="B14" s="1">
-        <v>-1</v>
+      <c r="B14" s="13">
+        <v>-1.5</v>
       </c>
       <c r="C14" s="1">
         <v>10.5</v>
@@ -1283,7 +1289,7 @@
       <c r="A15" s="2">
         <v>37712</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>0.1</v>
       </c>
       <c r="C15" s="1">
@@ -1315,8 +1321,8 @@
       <c r="A16" s="2">
         <v>37803</v>
       </c>
-      <c r="B16" s="1">
-        <v>1.3</v>
+      <c r="B16" s="13">
+        <v>0.8</v>
       </c>
       <c r="C16" s="1">
         <v>10.5</v>
@@ -1347,8 +1353,8 @@
       <c r="A17" s="2">
         <v>37895</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.4</v>
+      <c r="B17" s="13">
+        <v>0.3</v>
       </c>
       <c r="C17" s="1">
         <v>10.5</v>
@@ -1379,8 +1385,8 @@
       <c r="A18" s="2">
         <v>37987</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.2</v>
+      <c r="B18" s="13">
+        <v>-0.2</v>
       </c>
       <c r="C18" s="1">
         <v>10.3</v>
@@ -1411,8 +1417,8 @@
       <c r="A19" s="2">
         <v>38078</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
+      <c r="B19" s="13">
+        <v>0.5</v>
       </c>
       <c r="C19" s="1">
         <v>10.5</v>
@@ -1443,7 +1449,7 @@
       <c r="A20" s="2">
         <v>38169</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>-0.2</v>
       </c>
       <c r="C20" s="1">
@@ -1475,7 +1481,7 @@
       <c r="A21" s="2">
         <v>38261</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>-0.1</v>
       </c>
       <c r="C21" s="1">
@@ -1507,8 +1513,8 @@
       <c r="A22" s="2">
         <v>38353</v>
       </c>
-      <c r="B22" s="1">
-        <v>0.2</v>
+      <c r="B22" s="13">
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>11.9</v>
@@ -1539,8 +1545,8 @@
       <c r="A23" s="2">
         <v>38443</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.6</v>
+      <c r="B23" s="13">
+        <v>0.5</v>
       </c>
       <c r="C23" s="1">
         <v>11.9</v>
@@ -1571,8 +1577,8 @@
       <c r="A24" s="2">
         <v>38534</v>
       </c>
-      <c r="B24" s="1">
-        <v>0.9</v>
+      <c r="B24" s="13">
+        <v>0.8</v>
       </c>
       <c r="C24" s="1">
         <v>11.7</v>
@@ -1603,8 +1609,8 @@
       <c r="A25" s="2">
         <v>38626</v>
       </c>
-      <c r="B25" s="1">
-        <v>0.7</v>
+      <c r="B25" s="13">
+        <v>0.5</v>
       </c>
       <c r="C25" s="1">
         <v>11.4</v>
@@ -1635,8 +1641,8 @@
       <c r="A26" s="2">
         <v>38718</v>
       </c>
-      <c r="B26" s="1">
-        <v>0.8</v>
+      <c r="B26" s="13">
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>11.4</v>
@@ -1667,8 +1673,8 @@
       <c r="A27" s="2">
         <v>38808</v>
       </c>
-      <c r="B27" s="1">
-        <v>2.1</v>
+      <c r="B27" s="13">
+        <v>1.7</v>
       </c>
       <c r="C27" s="1">
         <v>11</v>
@@ -1699,7 +1705,7 @@
       <c r="A28" s="2">
         <v>38899</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>0.8</v>
       </c>
       <c r="C28" s="1">
@@ -1731,8 +1737,8 @@
       <c r="A29" s="2">
         <v>38991</v>
       </c>
-      <c r="B29" s="1">
-        <v>1.9</v>
+      <c r="B29" s="13">
+        <v>1.5</v>
       </c>
       <c r="C29" s="1">
         <v>10.1</v>
@@ -1763,8 +1769,8 @@
       <c r="A30" s="2">
         <v>39083</v>
       </c>
-      <c r="B30" s="1">
-        <v>0.9</v>
+      <c r="B30" s="13">
+        <v>0.1</v>
       </c>
       <c r="C30" s="1">
         <v>9.5</v>
@@ -1795,8 +1801,8 @@
       <c r="A31" s="2">
         <v>39173</v>
       </c>
-      <c r="B31" s="1">
-        <v>1.2</v>
+      <c r="B31" s="13">
+        <v>0.8</v>
       </c>
       <c r="C31" s="1">
         <v>9.1</v>
@@ -1827,8 +1833,8 @@
       <c r="A32" s="2">
         <v>39264</v>
       </c>
-      <c r="B32" s="1">
-        <v>0.8</v>
+      <c r="B32" s="13">
+        <v>0.5</v>
       </c>
       <c r="C32" s="1">
         <v>8.8000000000000007</v>
@@ -1859,8 +1865,8 @@
       <c r="A33" s="2">
         <v>39356</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
+      <c r="B33" s="13">
+        <v>0.6</v>
       </c>
       <c r="C33" s="1">
         <v>8.5</v>
@@ -1891,7 +1897,7 @@
       <c r="A34" s="2">
         <v>39448</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="13">
         <v>0.6</v>
       </c>
       <c r="C34" s="1">
@@ -1923,8 +1929,8 @@
       <c r="A35" s="2">
         <v>39539</v>
       </c>
-      <c r="B35" s="1">
-        <v>0</v>
+      <c r="B35" s="13">
+        <v>-0.2</v>
       </c>
       <c r="C35" s="1">
         <v>7.8</v>
@@ -1955,8 +1961,8 @@
       <c r="A36" s="2">
         <v>39630</v>
       </c>
-      <c r="B36" s="1">
-        <v>-0.4</v>
+      <c r="B36" s="13">
+        <v>-0.6</v>
       </c>
       <c r="C36" s="1">
         <v>7.6</v>
@@ -1987,8 +1993,8 @@
       <c r="A37" s="2">
         <v>39722</v>
       </c>
-      <c r="B37" s="1">
-        <v>-1.2</v>
+      <c r="B37" s="13">
+        <v>-1.6</v>
       </c>
       <c r="C37" s="1">
         <v>7.6</v>
@@ -2019,8 +2025,8 @@
       <c r="A38" s="2">
         <v>39814</v>
       </c>
-      <c r="B38" s="1">
-        <v>-4</v>
+      <c r="B38" s="13">
+        <v>-4.7</v>
       </c>
       <c r="C38" s="1">
         <v>7.9</v>
@@ -2051,8 +2057,8 @@
       <c r="A39" s="2">
         <v>39904</v>
       </c>
-      <c r="B39" s="1">
-        <v>0.5</v>
+      <c r="B39" s="13">
+        <v>0.2</v>
       </c>
       <c r="C39" s="1">
         <v>8.3000000000000007</v>
@@ -2083,8 +2089,8 @@
       <c r="A40" s="2">
         <v>39995</v>
       </c>
-      <c r="B40" s="1">
-        <v>1.1000000000000001</v>
+      <c r="B40" s="13">
+        <v>0.6</v>
       </c>
       <c r="C40" s="1">
         <v>8.1999999999999993</v>
@@ -2115,8 +2121,8 @@
       <c r="A41" s="2">
         <v>40087</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
+      <c r="B41" s="13">
+        <v>0.7</v>
       </c>
       <c r="C41" s="1">
         <v>8.1</v>
@@ -2147,8 +2153,8 @@
       <c r="A42" s="2">
         <v>40179</v>
       </c>
-      <c r="B42" s="1">
-        <v>0.9</v>
+      <c r="B42" s="13">
+        <v>0.8</v>
       </c>
       <c r="C42" s="1">
         <v>8</v>
@@ -2179,8 +2185,8 @@
       <c r="A43" s="2">
         <v>40269</v>
       </c>
-      <c r="B43" s="1">
-        <v>1.7</v>
+      <c r="B43" s="13">
+        <v>2.2999999999999998</v>
       </c>
       <c r="C43" s="1">
         <v>7.7</v>
@@ -2211,8 +2217,8 @@
       <c r="A44" s="2">
         <v>40360</v>
       </c>
-      <c r="B44" s="1">
-        <v>1.6</v>
+      <c r="B44" s="13">
+        <v>0.8</v>
       </c>
       <c r="C44" s="1">
         <v>7.6</v>
@@ -2243,8 +2249,8 @@
       <c r="A45" s="2">
         <v>40452</v>
       </c>
-      <c r="B45" s="1">
-        <v>1</v>
+      <c r="B45" s="13">
+        <v>0.8</v>
       </c>
       <c r="C45" s="1">
         <v>7.4</v>
@@ -2275,8 +2281,8 @@
       <c r="A46" s="2">
         <v>40544</v>
       </c>
-      <c r="B46" s="1">
-        <v>2</v>
+      <c r="B46" s="13">
+        <v>1.9</v>
       </c>
       <c r="C46" s="1">
         <v>7.3</v>
@@ -2307,8 +2313,8 @@
       <c r="A47" s="2">
         <v>40634</v>
       </c>
-      <c r="B47" s="1">
-        <v>0.5</v>
+      <c r="B47" s="13">
+        <v>0.1</v>
       </c>
       <c r="C47" s="1">
         <v>7.1</v>
@@ -2339,8 +2345,8 @@
       <c r="A48" s="2">
         <v>40725</v>
       </c>
-      <c r="B48" s="1">
-        <v>1.3</v>
+      <c r="B48" s="13">
+        <v>0.9</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
@@ -2371,8 +2377,8 @@
       <c r="A49" s="2">
         <v>40817</v>
       </c>
-      <c r="B49" s="1">
-        <v>0.3</v>
+      <c r="B49" s="13">
+        <v>-0.3</v>
       </c>
       <c r="C49" s="1">
         <v>6.8</v>
@@ -2403,8 +2409,8 @@
       <c r="A50" s="2">
         <v>40909</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.3</v>
+      <c r="B50" s="13">
+        <v>0.2</v>
       </c>
       <c r="C50" s="1">
         <v>6.8</v>
@@ -2435,8 +2441,8 @@
       <c r="A51" s="2">
         <v>41000</v>
       </c>
-      <c r="B51" s="1">
-        <v>0.4</v>
+      <c r="B51" s="13">
+        <v>0.2</v>
       </c>
       <c r="C51" s="1">
         <v>6.8</v>
@@ -2467,8 +2473,8 @@
       <c r="A52" s="2">
         <v>41091</v>
       </c>
-      <c r="B52" s="1">
-        <v>1</v>
+      <c r="B52" s="13">
+        <v>0.3</v>
       </c>
       <c r="C52" s="1">
         <v>6.8</v>
@@ -2499,8 +2505,8 @@
       <c r="A53" s="2">
         <v>41183</v>
       </c>
-      <c r="B53" s="1">
-        <v>0.1</v>
+      <c r="B53" s="13">
+        <v>-0.5</v>
       </c>
       <c r="C53" s="1">
         <v>6.8</v>
@@ -2531,8 +2537,8 @@
       <c r="A54" s="2">
         <v>41275</v>
       </c>
-      <c r="B54" s="1">
-        <v>0.2</v>
+      <c r="B54" s="13">
+        <v>-0.5</v>
       </c>
       <c r="C54" s="1">
         <v>6.9</v>
@@ -2563,8 +2569,8 @@
       <c r="A55" s="2">
         <v>41365</v>
       </c>
-      <c r="B55" s="1">
-        <v>1.4</v>
+      <c r="B55" s="13">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="1">
         <v>6.9</v>
@@ -2595,8 +2601,8 @@
       <c r="A56" s="2">
         <v>41456</v>
       </c>
-      <c r="B56" s="1">
-        <v>1</v>
+      <c r="B56" s="13">
+        <v>0.5</v>
       </c>
       <c r="C56" s="1">
         <v>6.8</v>
@@ -2627,8 +2633,8 @@
       <c r="A57" s="2">
         <v>41548</v>
       </c>
-      <c r="B57" s="1">
-        <v>0.4</v>
+      <c r="B57" s="13">
+        <v>0.3</v>
       </c>
       <c r="C57" s="1">
         <v>6.8</v>
@@ -2659,8 +2665,8 @@
       <c r="A58" s="2">
         <v>41640</v>
       </c>
-      <c r="B58" s="1">
-        <v>1.9</v>
+      <c r="B58" s="13">
+        <v>1</v>
       </c>
       <c r="C58" s="1">
         <v>6.8</v>
@@ -2691,8 +2697,8 @@
       <c r="A59" s="2">
         <v>41730</v>
       </c>
-      <c r="B59" s="1">
-        <v>0.5</v>
+      <c r="B59" s="13">
+        <v>0</v>
       </c>
       <c r="C59" s="1">
         <v>6.7</v>
@@ -2723,8 +2729,8 @@
       <c r="A60" s="2">
         <v>41821</v>
       </c>
-      <c r="B60" s="1">
-        <v>0.7</v>
+      <c r="B60" s="13">
+        <v>0.5</v>
       </c>
       <c r="C60" s="1">
         <v>6.7</v>
@@ -2755,8 +2761,8 @@
       <c r="A61" s="2">
         <v>41913</v>
       </c>
-      <c r="B61" s="1">
-        <v>1</v>
+      <c r="B61" s="13">
+        <v>0.8</v>
       </c>
       <c r="C61" s="1">
         <v>6.6</v>
@@ -2787,8 +2793,8 @@
       <c r="A62" s="2">
         <v>42005</v>
       </c>
-      <c r="B62" s="1">
-        <v>0.4</v>
+      <c r="B62" s="13">
+        <v>-0.5</v>
       </c>
       <c r="C62" s="1">
         <v>6.5</v>
@@ -2819,8 +2825,8 @@
       <c r="A63" s="2">
         <v>42095</v>
       </c>
-      <c r="B63" s="1">
-        <v>1.2</v>
+      <c r="B63" s="13">
+        <v>0.8</v>
       </c>
       <c r="C63" s="1">
         <v>6.4</v>
@@ -2851,8 +2857,8 @@
       <c r="A64" s="2">
         <v>42186</v>
       </c>
-      <c r="B64" s="1">
-        <v>0.7</v>
+      <c r="B64" s="13">
+        <v>0.4</v>
       </c>
       <c r="C64" s="1">
         <v>6.3</v>
@@ -2883,8 +2889,8 @@
       <c r="A65" s="2">
         <v>42278</v>
       </c>
-      <c r="B65" s="1">
-        <v>0.6</v>
+      <c r="B65" s="13">
+        <v>0.4</v>
       </c>
       <c r="C65" s="1">
         <v>6.3</v>
@@ -2915,8 +2921,8 @@
       <c r="A66" s="2">
         <v>42370</v>
       </c>
-      <c r="B66" s="1">
-        <v>1.4</v>
+      <c r="B66" s="13">
+        <v>0.8</v>
       </c>
       <c r="C66" s="1">
         <v>6.2</v>
@@ -2947,8 +2953,8 @@
       <c r="A67" s="2">
         <v>42461</v>
       </c>
-      <c r="B67" s="1">
-        <v>0.8</v>
+      <c r="B67" s="13">
+        <v>0.5</v>
       </c>
       <c r="C67" s="1">
         <v>6.1</v>
@@ -2979,8 +2985,8 @@
       <c r="A68" s="2">
         <v>42552</v>
       </c>
-      <c r="B68" s="1">
-        <v>0.4</v>
+      <c r="B68" s="13">
+        <v>0.2</v>
       </c>
       <c r="C68" s="1">
         <v>6</v>
@@ -3011,8 +3017,8 @@
       <c r="A69" s="2">
         <v>42644</v>
       </c>
-      <c r="B69" s="1">
-        <v>0.8</v>
+      <c r="B69" s="13">
+        <v>0.4</v>
       </c>
       <c r="C69" s="1">
         <v>6</v>
@@ -3043,8 +3049,8 @@
       <c r="A70" s="2">
         <v>42736</v>
       </c>
-      <c r="B70" s="1">
-        <v>1.5</v>
+      <c r="B70" s="13">
+        <v>1.2</v>
       </c>
       <c r="C70" s="1">
         <v>5.9</v>
@@ -3075,8 +3081,8 @@
       <c r="A71" s="2">
         <v>42826</v>
       </c>
-      <c r="B71" s="1">
-        <v>1.5</v>
+      <c r="B71" s="13">
+        <v>0.9</v>
       </c>
       <c r="C71" s="1">
         <v>5.7</v>
@@ -3107,8 +3113,8 @@
       <c r="A72" s="2">
         <v>42917</v>
       </c>
-      <c r="B72" s="1">
-        <v>1.1000000000000001</v>
+      <c r="B72" s="13">
+        <v>0.6</v>
       </c>
       <c r="C72" s="1">
         <v>5.6</v>
@@ -3139,8 +3145,8 @@
       <c r="A73" s="2">
         <v>43009</v>
       </c>
-      <c r="B73" s="1">
-        <v>1.4</v>
+      <c r="B73" s="13">
+        <v>0.9</v>
       </c>
       <c r="C73" s="1">
         <v>5.5</v>
@@ -3171,8 +3177,8 @@
       <c r="A74" s="2">
         <v>43101</v>
       </c>
-      <c r="B74" s="1">
-        <v>-0.2</v>
+      <c r="B74" s="13">
+        <v>-0.6</v>
       </c>
       <c r="C74" s="1">
         <v>5.4</v>
@@ -3203,8 +3209,8 @@
       <c r="A75" s="2">
         <v>43191</v>
       </c>
-      <c r="B75" s="1">
-        <v>1.3</v>
+      <c r="B75" s="13">
+        <v>0.8</v>
       </c>
       <c r="C75" s="1">
         <v>5.2</v>
@@ -3235,8 +3241,8 @@
       <c r="A76" s="2">
         <v>43282</v>
       </c>
-      <c r="B76" s="1">
-        <v>-0.3</v>
+      <c r="B76" s="13">
+        <v>-0.9</v>
       </c>
       <c r="C76" s="1">
         <v>5.0999999999999996</v>
@@ -3267,8 +3273,8 @@
       <c r="A77" s="2">
         <v>43374</v>
       </c>
-      <c r="B77" s="1">
-        <v>1.6</v>
+      <c r="B77" s="13">
+        <v>0.9</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
@@ -3299,8 +3305,8 @@
       <c r="A78" s="2">
         <v>43466</v>
       </c>
-      <c r="B78" s="1">
-        <v>0.8</v>
+      <c r="B78" s="13">
+        <v>0.7</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
@@ -3331,8 +3337,8 @@
       <c r="A79" s="2">
         <v>43556</v>
       </c>
-      <c r="B79" s="1">
-        <v>0.6</v>
+      <c r="B79" s="13">
+        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>5</v>
@@ -3363,8 +3369,8 @@
       <c r="A80" s="2">
         <v>43647</v>
       </c>
-      <c r="B80" s="1">
-        <v>0.7</v>
+      <c r="B80" s="13">
+        <v>0</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
@@ -3395,8 +3401,8 @@
       <c r="A81" s="2">
         <v>43739</v>
       </c>
-      <c r="B81" s="1">
-        <v>1</v>
+      <c r="B81" s="13">
+        <v>0.3</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
@@ -3427,8 +3433,8 @@
       <c r="A82" s="2">
         <v>43831</v>
       </c>
-      <c r="B82" s="1">
-        <v>-1.1000000000000001</v>
+      <c r="B82" s="13">
+        <v>-1.8</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
@@ -3459,8 +3465,8 @@
       <c r="A83" s="2">
         <v>43922</v>
       </c>
-      <c r="B83" s="1">
-        <v>-8.3000000000000007</v>
+      <c r="B83" s="13">
+        <v>-9.1999999999999993</v>
       </c>
       <c r="C83" s="1">
         <v>6.1</v>
@@ -3491,8 +3497,8 @@
       <c r="A84" s="2">
         <v>44013</v>
       </c>
-      <c r="B84" s="1">
-        <v>7.2</v>
+      <c r="B84" s="13">
+        <v>8.9</v>
       </c>
       <c r="C84" s="1">
         <v>6.3</v>
@@ -3523,8 +3529,8 @@
       <c r="A85" s="2">
         <v>44105</v>
       </c>
-      <c r="B85" s="1">
-        <v>1.6</v>
+      <c r="B85" s="13">
+        <v>0.8</v>
       </c>
       <c r="C85" s="1">
         <v>6.1</v>
@@ -3555,8 +3561,8 @@
       <c r="A86" s="2">
         <v>44197</v>
       </c>
-      <c r="B86" s="1">
-        <v>0.2</v>
+      <c r="B86" s="13">
+        <v>-1.3</v>
       </c>
       <c r="C86" s="1">
         <v>6</v>
@@ -3587,8 +3593,8 @@
       <c r="A87" s="2">
         <v>44287</v>
       </c>
-      <c r="B87" s="1">
-        <v>2.2999999999999998</v>
+      <c r="B87" s="13">
+        <v>2.2000000000000002</v>
       </c>
       <c r="C87" s="1">
         <v>5.9</v>
@@ -3619,8 +3625,8 @@
       <c r="A88" s="2">
         <v>44378</v>
       </c>
-      <c r="B88" s="1">
-        <v>2.6</v>
+      <c r="B88" s="13">
+        <v>0.7</v>
       </c>
       <c r="C88" s="1">
         <v>5.5</v>
@@ -3651,8 +3657,8 @@
       <c r="A89" s="2">
         <v>44470</v>
       </c>
-      <c r="B89" s="1">
-        <v>1.2</v>
+      <c r="B89" s="13">
+        <v>0</v>
       </c>
       <c r="C89" s="1">
         <v>5.3</v>
@@ -3683,8 +3689,8 @@
       <c r="A90" s="2">
         <v>44562</v>
       </c>
-      <c r="B90" s="1">
-        <v>2.2999999999999998</v>
+      <c r="B90" s="13">
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>5.0999999999999996</v>
@@ -3715,8 +3721,8 @@
       <c r="A91" s="2">
         <v>44652</v>
       </c>
-      <c r="B91" s="1">
-        <v>1.2</v>
+      <c r="B91" s="13">
+        <v>-0.1</v>
       </c>
       <c r="C91" s="1">
         <v>5.0999999999999996</v>
@@ -3747,8 +3753,8 @@
       <c r="A92" s="2">
         <v>44743</v>
       </c>
-      <c r="B92" s="1">
-        <v>1</v>
+      <c r="B92" s="13">
+        <v>0.4</v>
       </c>
       <c r="C92" s="1">
         <v>5.5</v>
@@ -3779,8 +3785,8 @@
       <c r="A93" s="2">
         <v>44835</v>
       </c>
-      <c r="B93" s="1">
-        <v>2.2000000000000002</v>
+      <c r="B93" s="13">
+        <v>-0.4</v>
       </c>
       <c r="C93" s="1">
         <v>5.5</v>
@@ -3811,8 +3817,8 @@
       <c r="A94" s="2">
         <v>44927</v>
       </c>
-      <c r="B94" s="1">
-        <v>2.2999999999999998</v>
+      <c r="B94" s="13">
+        <v>0.1</v>
       </c>
       <c r="C94" s="1">
         <v>5.5</v>
@@ -3843,8 +3849,8 @@
       <c r="A95" s="2">
         <v>45017</v>
       </c>
-      <c r="B95" s="1">
-        <v>1</v>
+      <c r="B95" s="13">
+        <v>0</v>
       </c>
       <c r="C95" s="1">
         <v>5.6</v>
@@ -3875,8 +3881,8 @@
       <c r="A96" s="2">
         <v>45108</v>
       </c>
-      <c r="B96" s="1">
-        <v>0.9</v>
+      <c r="B96" s="13">
+        <v>0</v>
       </c>
       <c r="C96" s="1">
         <v>5.7</v>
@@ -3907,8 +3913,8 @@
       <c r="A97" s="3">
         <v>45200</v>
       </c>
-      <c r="B97" s="1">
-        <v>2</v>
+      <c r="B97" s="13">
+        <v>-0.3</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="8">

--- a/DataTyskland.xlsx
+++ b/DataTyskland.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/ci65gm_student_aau_dk/Documents/Økonomi/4. semester/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonhedegaard/Desktop/simons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B193AEE-0B6D-434C-B61B-603DCD0CFEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8939B6-1673-4B47-B9D6-E8D294C40004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23700" windowHeight="15560" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="23700" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -73,294 +73,6 @@
     <t>Productivity output per hour worked (mining and manufacturing)</t>
   </si>
   <si>
-    <t> 0,9865 </t>
-  </si>
-  <si>
-    <t> 0,9332 </t>
-  </si>
-  <si>
-    <t> 0,9052 </t>
-  </si>
-  <si>
-    <t> 0,8683 </t>
-  </si>
-  <si>
-    <t> 0,9232 </t>
-  </si>
-  <si>
-    <t> 0,8725 </t>
-  </si>
-  <si>
-    <t> 0,8903 </t>
-  </si>
-  <si>
-    <t> 0,8959 </t>
-  </si>
-  <si>
-    <t> 0,8766 </t>
-  </si>
-  <si>
-    <t> 0,9188 </t>
-  </si>
-  <si>
-    <t> 0,9838 </t>
-  </si>
-  <si>
-    <t> 0,9994 </t>
-  </si>
-  <si>
-    <t> 1,0731 </t>
-  </si>
-  <si>
-    <t> 1,1372 </t>
-  </si>
-  <si>
-    <t> 1,1248 </t>
-  </si>
-  <si>
-    <t> 1,1890 </t>
-  </si>
-  <si>
-    <t> 1,2497 </t>
-  </si>
-  <si>
-    <t> 1,2046 </t>
-  </si>
-  <si>
-    <t> 1,2220 </t>
-  </si>
-  <si>
-    <t> 1,2977 </t>
-  </si>
-  <si>
-    <t> 1,3113 </t>
-  </si>
-  <si>
-    <t> 1,2594 </t>
-  </si>
-  <si>
-    <t> 1,2199 </t>
-  </si>
-  <si>
-    <t> 1,1884 </t>
-  </si>
-  <si>
-    <t> 1,2023 </t>
-  </si>
-  <si>
-    <t> 1,2582 </t>
-  </si>
-  <si>
-    <t> 1,2743 </t>
-  </si>
-  <si>
-    <t> 1,2887 </t>
-  </si>
-  <si>
-    <t> 1,3106 </t>
-  </si>
-  <si>
-    <t> 1,3481 </t>
-  </si>
-  <si>
-    <t> 1,3738 </t>
-  </si>
-  <si>
-    <t> 1,4486 </t>
-  </si>
-  <si>
-    <t> 1,4976 </t>
-  </si>
-  <si>
-    <t> 1,5622 </t>
-  </si>
-  <si>
-    <t> 1,5050 </t>
-  </si>
-  <si>
-    <t> 1,3180 </t>
-  </si>
-  <si>
-    <t> 1,3029 </t>
-  </si>
-  <si>
-    <t> 1,3632 </t>
-  </si>
-  <si>
-    <t> 1,4303 </t>
-  </si>
-  <si>
-    <t> 1,4779 </t>
-  </si>
-  <si>
-    <t> 1,3829 </t>
-  </si>
-  <si>
-    <t> 1,2708 </t>
-  </si>
-  <si>
-    <t> 1,2910 </t>
-  </si>
-  <si>
-    <t> 1,3583 </t>
-  </si>
-  <si>
-    <t> 1,3680 </t>
-  </si>
-  <si>
-    <t> 1,4391 </t>
-  </si>
-  <si>
-    <t> 1,4127 </t>
-  </si>
-  <si>
-    <t> 1,3482 </t>
-  </si>
-  <si>
-    <t> 1,3108 </t>
-  </si>
-  <si>
-    <t> 1,2814 </t>
-  </si>
-  <si>
-    <t> 1,2502 </t>
-  </si>
-  <si>
-    <t> 1,2967 </t>
-  </si>
-  <si>
-    <t> 1,3206 </t>
-  </si>
-  <si>
-    <t> 1,3062 </t>
-  </si>
-  <si>
-    <t> 1,3242 </t>
-  </si>
-  <si>
-    <t> 1,3610 </t>
-  </si>
-  <si>
-    <t> 1,3696 </t>
-  </si>
-  <si>
-    <t> 1,3711 </t>
-  </si>
-  <si>
-    <t> 1,3256 </t>
-  </si>
-  <si>
-    <t> 1,2498 </t>
-  </si>
-  <si>
-    <t> 1,1261 </t>
-  </si>
-  <si>
-    <t> 1,1053 </t>
-  </si>
-  <si>
-    <t> 1,1117 </t>
-  </si>
-  <si>
-    <t> 1,0953 </t>
-  </si>
-  <si>
-    <t> 1,1020 </t>
-  </si>
-  <si>
-    <t> 1,1292 </t>
-  </si>
-  <si>
-    <t> 1,1166 </t>
-  </si>
-  <si>
-    <t> 1,0789 </t>
-  </si>
-  <si>
-    <t> 1,0648 </t>
-  </si>
-  <si>
-    <t> 1,1021 </t>
-  </si>
-  <si>
-    <t> 1,1746 </t>
-  </si>
-  <si>
-    <t> 1,1774 </t>
-  </si>
-  <si>
-    <t> 1,2292 </t>
-  </si>
-  <si>
-    <t> 1,1915 </t>
-  </si>
-  <si>
-    <t> 1,1629 </t>
-  </si>
-  <si>
-    <t> 1,1414 </t>
-  </si>
-  <si>
-    <t> 1,1358 </t>
-  </si>
-  <si>
-    <t> 1,1237 </t>
-  </si>
-  <si>
-    <t> 1,1119 </t>
-  </si>
-  <si>
-    <t> 1,1071 </t>
-  </si>
-  <si>
-    <t> 1,1027 </t>
-  </si>
-  <si>
-    <t> 1,1014 </t>
-  </si>
-  <si>
-    <t> 1,1689 </t>
-  </si>
-  <si>
-    <t> 1,1929 </t>
-  </si>
-  <si>
-    <t> 1,2048 </t>
-  </si>
-  <si>
-    <t> 1,2058 </t>
-  </si>
-  <si>
-    <t> 1,1788 </t>
-  </si>
-  <si>
-    <t> 1,1435 </t>
-  </si>
-  <si>
-    <t> 1,1217 </t>
-  </si>
-  <si>
-    <t> 1,0647 </t>
-  </si>
-  <si>
-    <t> 1,0070 </t>
-  </si>
-  <si>
-    <t> 1,0205 </t>
-  </si>
-  <si>
-    <t> 1,0730 </t>
-  </si>
-  <si>
-    <t> 1,0887 </t>
-  </si>
-  <si>
-    <t> 1,0884 </t>
-  </si>
-  <si>
-    <t> 1,0751 </t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -404,17 +116,307 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t> 0.9865 </t>
+  </si>
+  <si>
+    <t> 0.9332 </t>
+  </si>
+  <si>
+    <t> 0.9052 </t>
+  </si>
+  <si>
+    <t> 0.8683 </t>
+  </si>
+  <si>
+    <t> 0.9232 </t>
+  </si>
+  <si>
+    <t> 0.8725 </t>
+  </si>
+  <si>
+    <t> 0.8903 </t>
+  </si>
+  <si>
+    <t> 0.8959 </t>
+  </si>
+  <si>
+    <t> 0.8766 </t>
+  </si>
+  <si>
+    <t> 0.9188 </t>
+  </si>
+  <si>
+    <t> 0.9838 </t>
+  </si>
+  <si>
+    <t> 0.9994 </t>
+  </si>
+  <si>
+    <t> 1.0731 </t>
+  </si>
+  <si>
+    <t> 1.1372 </t>
+  </si>
+  <si>
+    <t> 1.1248 </t>
+  </si>
+  <si>
+    <t> 1.1890 </t>
+  </si>
+  <si>
+    <t> 1.2497 </t>
+  </si>
+  <si>
+    <t> 1.2046 </t>
+  </si>
+  <si>
+    <t> 1.2220 </t>
+  </si>
+  <si>
+    <t> 1.2977 </t>
+  </si>
+  <si>
+    <t> 1.3113 </t>
+  </si>
+  <si>
+    <t> 1.2594 </t>
+  </si>
+  <si>
+    <t> 1.2199 </t>
+  </si>
+  <si>
+    <t> 1.1884 </t>
+  </si>
+  <si>
+    <t> 1.2023 </t>
+  </si>
+  <si>
+    <t> 1.2582 </t>
+  </si>
+  <si>
+    <t> 1.2743 </t>
+  </si>
+  <si>
+    <t> 1.2887 </t>
+  </si>
+  <si>
+    <t> 1.3106 </t>
+  </si>
+  <si>
+    <t> 1.3481 </t>
+  </si>
+  <si>
+    <t> 1.3738 </t>
+  </si>
+  <si>
+    <t> 1.4486 </t>
+  </si>
+  <si>
+    <t> 1.4976 </t>
+  </si>
+  <si>
+    <t> 1.5622 </t>
+  </si>
+  <si>
+    <t> 1.5050 </t>
+  </si>
+  <si>
+    <t> 1.3180 </t>
+  </si>
+  <si>
+    <t> 1.3029 </t>
+  </si>
+  <si>
+    <t> 1.3632 </t>
+  </si>
+  <si>
+    <t> 1.4303 </t>
+  </si>
+  <si>
+    <t> 1.4779 </t>
+  </si>
+  <si>
+    <t> 1.3829 </t>
+  </si>
+  <si>
+    <t> 1.2708 </t>
+  </si>
+  <si>
+    <t> 1.2910 </t>
+  </si>
+  <si>
+    <t> 1.3583 </t>
+  </si>
+  <si>
+    <t> 1.3680 </t>
+  </si>
+  <si>
+    <t> 1.4391 </t>
+  </si>
+  <si>
+    <t> 1.4127 </t>
+  </si>
+  <si>
+    <t> 1.3482 </t>
+  </si>
+  <si>
+    <t> 1.3108 </t>
+  </si>
+  <si>
+    <t> 1.2814 </t>
+  </si>
+  <si>
+    <t> 1.2502 </t>
+  </si>
+  <si>
+    <t> 1.2967 </t>
+  </si>
+  <si>
+    <t> 1.3206 </t>
+  </si>
+  <si>
+    <t> 1.3062 </t>
+  </si>
+  <si>
+    <t> 1.3242 </t>
+  </si>
+  <si>
+    <t> 1.3610 </t>
+  </si>
+  <si>
+    <t> 1.3696 </t>
+  </si>
+  <si>
+    <t> 1.3711 </t>
+  </si>
+  <si>
+    <t> 1.3256 </t>
+  </si>
+  <si>
+    <t> 1.2498 </t>
+  </si>
+  <si>
+    <t> 1.1261 </t>
+  </si>
+  <si>
+    <t> 1.1053 </t>
+  </si>
+  <si>
+    <t> 1.1117 </t>
+  </si>
+  <si>
+    <t> 1.0953 </t>
+  </si>
+  <si>
+    <t> 1.1020 </t>
+  </si>
+  <si>
+    <t> 1.1292 </t>
+  </si>
+  <si>
+    <t> 1.1166 </t>
+  </si>
+  <si>
+    <t> 1.0789 </t>
+  </si>
+  <si>
+    <t> 1.0648 </t>
+  </si>
+  <si>
+    <t> 1.1021 </t>
+  </si>
+  <si>
+    <t> 1.1746 </t>
+  </si>
+  <si>
+    <t> 1.1774 </t>
+  </si>
+  <si>
+    <t> 1.2292 </t>
+  </si>
+  <si>
+    <t> 1.1915 </t>
+  </si>
+  <si>
+    <t> 1.1629 </t>
+  </si>
+  <si>
+    <t> 1.1414 </t>
+  </si>
+  <si>
+    <t> 1.1358 </t>
+  </si>
+  <si>
+    <t> 1.1237 </t>
+  </si>
+  <si>
+    <t> 1.1119 </t>
+  </si>
+  <si>
+    <t> 1.1071 </t>
+  </si>
+  <si>
+    <t> 1.1027 </t>
+  </si>
+  <si>
+    <t> 1.1014 </t>
+  </si>
+  <si>
+    <t> 1.1689 </t>
+  </si>
+  <si>
+    <t> 1.1929 </t>
+  </si>
+  <si>
+    <t> 1.2048 </t>
+  </si>
+  <si>
+    <t> 1.2058 </t>
+  </si>
+  <si>
+    <t> 1.1788 </t>
+  </si>
+  <si>
+    <t> 1.1435 </t>
+  </si>
+  <si>
+    <t> 1.1217 </t>
+  </si>
+  <si>
+    <t> 1.0647 </t>
+  </si>
+  <si>
+    <t> 1.0070 </t>
+  </si>
+  <si>
+    <t> 1.0205 </t>
+  </si>
+  <si>
+    <t> 1.0730 </t>
+  </si>
+  <si>
+    <t> 1.0887 </t>
+  </si>
+  <si>
+    <t> 1.0884 </t>
+  </si>
+  <si>
+    <t> 1.0751 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,15 +439,24 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,10 +476,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -478,15 +490,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -821,23 +835,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -869,11 +883,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36526</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1.4</v>
       </c>
       <c r="C2" s="1">
@@ -891,21 +905,21 @@
       <c r="G2" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="13">
         <v>6.189796E-3</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="I2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="9">
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36617</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>0.8</v>
       </c>
       <c r="C3" s="1">
@@ -923,21 +937,21 @@
       <c r="G3" s="1">
         <v>9.5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="13">
         <v>-6.1099225E-2</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="9">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36708</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -955,21 +969,21 @@
       <c r="G4" s="1">
         <v>10.3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="13">
         <v>0.91796691399999997</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9">
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36800</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>-0.3</v>
       </c>
       <c r="C5" s="1">
@@ -987,21 +1001,21 @@
       <c r="G5" s="1">
         <v>16</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="13">
         <v>0.82722910999999999</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="9">
         <v>79.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36892</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -1019,21 +1033,21 @@
       <c r="G6" s="1">
         <v>7.9</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="13">
         <v>-1.7235691150000001</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="9">
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36982</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -1051,21 +1065,21 @@
       <c r="G7" s="1">
         <v>4.8</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="13">
         <v>0.216069645</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="9">
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>37073</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>-0.2</v>
       </c>
       <c r="C8" s="1">
@@ -1083,21 +1097,21 @@
       <c r="G8" s="1">
         <v>-0.6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="13">
         <v>0.28924004399999997</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="9">
         <v>78.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>37165</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>-0.1</v>
       </c>
       <c r="C9" s="1">
@@ -1115,21 +1129,21 @@
       <c r="G9" s="1">
         <v>-6.5</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="13">
         <v>1.0089601180000001</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="9">
         <v>77.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>37257</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>-0.5</v>
       </c>
       <c r="C10" s="1">
@@ -1147,21 +1161,21 @@
       <c r="G10" s="1">
         <v>-6.2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="13">
         <v>2.8872630999999999E-2</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="9">
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>37347</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>0.4</v>
       </c>
       <c r="C11" s="1">
@@ -1179,21 +1193,21 @@
       <c r="G11" s="1">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="13">
         <v>-0.35898126600000002</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="9">
         <v>80.8</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>37438</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0.5</v>
       </c>
       <c r="C12" s="1">
@@ -1211,21 +1225,21 @@
       <c r="G12" s="1">
         <v>-1.6</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="13">
         <v>0.19652018800000001</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="9">
         <v>81.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>37530</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>-0.1</v>
       </c>
       <c r="C13" s="1">
@@ -1243,21 +1257,21 @@
       <c r="G13" s="1">
         <v>1.7</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="13">
         <v>0.37363352300000002</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="9">
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>-1.5</v>
       </c>
       <c r="C14" s="1">
@@ -1275,21 +1289,21 @@
       <c r="G14" s="1">
         <v>7.9</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="13">
         <v>1.3128743810000001</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="9">
         <v>82.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>37712</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>0.1</v>
       </c>
       <c r="C15" s="1">
@@ -1307,21 +1321,21 @@
       <c r="G15" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="13">
         <v>-0.21871228300000001</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="9">
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>37803</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>0.8</v>
       </c>
       <c r="C16" s="1">
@@ -1339,21 +1353,21 @@
       <c r="G16" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="13">
         <v>5.3757728999999997E-2</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="9">
         <v>83.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>37895</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
@@ -1371,21 +1385,21 @@
       <c r="G17" s="1">
         <v>5.6</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="13">
         <v>-0.36024741999999998</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="9">
         <v>84.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>37987</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>-0.2</v>
       </c>
       <c r="C18" s="1">
@@ -1403,21 +1417,21 @@
       <c r="G18" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="13">
         <v>0.50438195900000005</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="I18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="9">
         <v>85.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>38078</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>0.5</v>
       </c>
       <c r="C19" s="1">
@@ -1435,21 +1449,21 @@
       <c r="G19" s="1">
         <v>7.8</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="13">
         <v>-0.56357813199999995</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="9">
         <v>85.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38169</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>-0.2</v>
       </c>
       <c r="C20" s="1">
@@ -1467,21 +1481,21 @@
       <c r="G20" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="13">
         <v>0.234477987</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="I20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="9">
         <v>87.4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38261</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>-0.1</v>
       </c>
       <c r="C21" s="1">
@@ -1499,21 +1513,21 @@
       <c r="G21" s="1">
         <v>6.2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="13">
         <v>0.13371394</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="I21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="9">
         <v>87.9</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>38353</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -1531,21 +1545,21 @@
       <c r="G22" s="1">
         <v>2.9</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="13">
         <v>0.17811001000000001</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="I22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="9">
         <v>88.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>38443</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>0.5</v>
       </c>
       <c r="C23" s="1">
@@ -1563,21 +1577,21 @@
       <c r="G23" s="1">
         <v>5.7</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="13">
         <v>-0.61401686499999997</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="10">
+      <c r="I23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="9">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>38534</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>0.8</v>
       </c>
       <c r="C24" s="1">
@@ -1595,21 +1609,21 @@
       <c r="G24" s="1">
         <v>6.1</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="13">
         <v>-0.82696737799999998</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="I24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="9">
         <v>91.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>38626</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>0.5</v>
       </c>
       <c r="C25" s="1">
@@ -1627,21 +1641,21 @@
       <c r="G25" s="1">
         <v>10.1</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="13">
         <v>-0.18833066800000001</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="10">
+      <c r="I25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="9">
         <v>93.1</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>38718</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>1</v>
       </c>
       <c r="C26" s="1">
@@ -1659,21 +1673,21 @@
       <c r="G26" s="1">
         <v>14.8</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="13">
         <v>-0.481418554</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="I26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="9">
         <v>93.1</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>38808</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>1.7</v>
       </c>
       <c r="C27" s="1">
@@ -1691,21 +1705,21 @@
       <c r="G27" s="1">
         <v>11.2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="13">
         <v>-1.0422138990000001</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="10">
+      <c r="I27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="9">
         <v>93.9</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>38899</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>0.8</v>
       </c>
       <c r="C28" s="1">
@@ -1723,21 +1737,21 @@
       <c r="G28" s="1">
         <v>10.6</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="13">
         <v>0.32956871700000001</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="10">
+      <c r="I28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="9">
         <v>96.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>38991</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>1.5</v>
       </c>
       <c r="C29" s="1">
@@ -1755,21 +1769,21 @@
       <c r="G29" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="13">
         <v>-1.249074837</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="I29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="9">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39083</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>0.1</v>
       </c>
       <c r="C30" s="1">
@@ -1787,21 +1801,21 @@
       <c r="G30" s="1">
         <v>8.1</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="13">
         <v>0.71465696199999995</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="10">
+      <c r="I30" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="9">
         <v>98.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>39173</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>0.8</v>
       </c>
       <c r="C31" s="1">
@@ -1819,21 +1833,21 @@
       <c r="G31" s="1">
         <v>6.9</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="13">
         <v>-0.16857691</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="I31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="9">
         <v>99.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39264</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>0.5</v>
       </c>
       <c r="C32" s="1">
@@ -1851,21 +1865,21 @@
       <c r="G32" s="1">
         <v>7.2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="13">
         <v>0.13418472100000001</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="I32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="9">
         <v>100.4</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39356</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>0.6</v>
       </c>
       <c r="C33" s="1">
@@ -1883,21 +1897,21 @@
       <c r="G33" s="1">
         <v>3.9</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="13">
         <v>0.182158871</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="10">
+      <c r="I33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="9">
         <v>101.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>39448</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>0.6</v>
       </c>
       <c r="C34" s="1">
@@ -1915,21 +1929,21 @@
       <c r="G34" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="13">
         <v>0.71565135300000005</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="9">
         <v>102.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39539</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>-0.2</v>
       </c>
       <c r="C35" s="1">
@@ -1947,21 +1961,21 @@
       <c r="G35" s="1">
         <v>2.6</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="13">
         <v>1.113549911</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="I35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="9">
         <v>100.9</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39630</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="12">
         <v>-0.6</v>
       </c>
       <c r="C36" s="1">
@@ -1979,21 +1993,21 @@
       <c r="G36" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="13">
         <v>1.2781141380000001</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="I36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="9">
         <v>99.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39722</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>-1.6</v>
       </c>
       <c r="C37" s="1">
@@ -2011,21 +2025,21 @@
       <c r="G37" s="1">
         <v>-1.4</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="13">
         <v>2.4862323260000001</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="10">
+      <c r="I37" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="9">
         <v>96.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39814</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>-4.7</v>
       </c>
       <c r="C38" s="1">
@@ -2043,21 +2057,21 @@
       <c r="G38" s="1">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="13">
         <v>4.01263799</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="10">
+      <c r="I38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="9">
         <v>87.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39904</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>0.2</v>
       </c>
       <c r="C39" s="1">
@@ -2075,21 +2089,21 @@
       <c r="G39" s="1">
         <v>-12.1</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="13">
         <v>-0.44995182900000003</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="10">
+      <c r="I39" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="9">
         <v>85.9</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39995</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>0.6</v>
       </c>
       <c r="C40" s="1">
@@ -2107,21 +2121,21 @@
       <c r="G40" s="1">
         <v>-10.5</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="13">
         <v>0.103046163</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="10">
+      <c r="I40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="9">
         <v>89.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40087</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>0.7</v>
       </c>
       <c r="C41" s="1">
@@ -2139,21 +2153,21 @@
       <c r="G41" s="1">
         <v>-8</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="13">
         <v>-0.34085805600000002</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="10">
+      <c r="I41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="9">
         <v>91.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40179</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>0.8</v>
       </c>
       <c r="C42" s="1">
@@ -2171,21 +2185,21 @@
       <c r="G42" s="1">
         <v>4.2</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="13">
         <v>0.205584079</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" s="10">
+      <c r="I42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="9">
         <v>92.9</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40269</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>2.2999999999999998</v>
       </c>
       <c r="C43" s="1">
@@ -2203,21 +2217,21 @@
       <c r="G43" s="1">
         <v>17.8</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="13">
         <v>-1.4406707940000001</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J43" s="10">
+      <c r="I43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="9">
         <v>95.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>40360</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>0.8</v>
       </c>
       <c r="C44" s="1">
@@ -2235,21 +2249,21 @@
       <c r="G44" s="1">
         <v>13.3</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="13">
         <v>0.21948596400000001</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="10">
+      <c r="I44" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>40452</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>0.8</v>
       </c>
       <c r="C45" s="1">
@@ -2267,21 +2281,21 @@
       <c r="G45" s="1">
         <v>15.6</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="13">
         <v>0.115391919</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" s="10">
+      <c r="I45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="9">
         <v>100.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>40544</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>1.9</v>
       </c>
       <c r="C46" s="1">
@@ -2299,21 +2313,21 @@
       <c r="G46" s="1">
         <v>11.7</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="13">
         <v>-0.485703406</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" s="10">
+      <c r="I46" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="9">
         <v>100.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>40634</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>0.1</v>
       </c>
       <c r="C47" s="1">
@@ -2331,21 +2345,21 @@
       <c r="G47" s="1">
         <v>6.7</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="13">
         <v>1.0073198729999999</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="10">
+      <c r="I47" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="9">
         <v>101.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>40725</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>0.9</v>
       </c>
       <c r="C48" s="1">
@@ -2363,21 +2377,21 @@
       <c r="G48" s="1">
         <v>7</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="13">
         <v>-0.273985272</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="10">
+      <c r="I48" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="9">
         <v>103.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>40817</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>-0.3</v>
       </c>
       <c r="C49" s="1">
@@ -2395,21 +2409,21 @@
       <c r="G49" s="1">
         <v>4.7</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="13">
         <v>1.040173692</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="10">
+      <c r="I49" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="9">
         <v>101.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>40909</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>0.2</v>
       </c>
       <c r="C50" s="1">
@@ -2427,21 +2441,21 @@
       <c r="G50" s="1">
         <v>2.1</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="13">
         <v>1.0338263190000001</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="10">
+      <c r="I50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="9">
         <v>99.9</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>0.2</v>
       </c>
       <c r="C51" s="1">
@@ -2459,21 +2473,21 @@
       <c r="G51" s="1">
         <v>-0.2</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="13">
         <v>1.075717472</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="10">
+      <c r="I51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="9">
         <v>99.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>41091</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>0.3</v>
       </c>
       <c r="C52" s="1">
@@ -2491,21 +2505,21 @@
       <c r="G52" s="1">
         <v>0.1</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="13">
         <v>0.25398210599999999</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="10">
+      <c r="I52" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="9">
         <v>100.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>41183</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>-0.5</v>
       </c>
       <c r="C53" s="1">
@@ -2523,21 +2537,21 @@
       <c r="G53" s="1">
         <v>0.3</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="13">
         <v>1.145063817</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J53" s="10">
+      <c r="I53" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="9">
         <v>98.3</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>41275</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>-0.5</v>
       </c>
       <c r="C54" s="1">
@@ -2555,21 +2569,21 @@
       <c r="G54" s="1">
         <v>0.7</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="13">
         <v>0.77873195699999997</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J54" s="10">
+      <c r="I54" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="9">
         <v>97.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>41365</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="1">
@@ -2587,21 +2601,21 @@
       <c r="G55" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="13">
         <v>-0.20622728300000001</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" s="10">
+      <c r="I55" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55" s="9">
         <v>98.2</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>41456</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>0.5</v>
       </c>
       <c r="C56" s="1">
@@ -2619,21 +2633,21 @@
       <c r="G56" s="1">
         <v>3.8</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="13">
         <v>0.33452826099999999</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J56" s="10">
+      <c r="I56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56" s="9">
         <v>98.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>41548</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>0.3</v>
       </c>
       <c r="C57" s="1">
@@ -2651,21 +2665,21 @@
       <c r="G57" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="13">
         <v>0.43758760899999999</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J57" s="10">
+      <c r="I57" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="9">
         <v>99.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>41640</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>1</v>
       </c>
       <c r="C58" s="1">
@@ -2683,21 +2697,21 @@
       <c r="G58" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="13">
         <v>0.42331946100000001</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J58" s="10">
+      <c r="I58" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="9">
         <v>100.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>41730</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>0</v>
       </c>
       <c r="C59" s="1">
@@ -2715,21 +2729,21 @@
       <c r="G59" s="1">
         <v>4</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="13">
         <v>0.67863599299999999</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" s="10">
+      <c r="I59" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" s="9">
         <v>100.9</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>41821</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>0.5</v>
       </c>
       <c r="C60" s="1">
@@ -2747,21 +2761,21 @@
       <c r="G60" s="1">
         <v>2.9</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="13">
         <v>0.33743779200000001</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J60" s="10">
+      <c r="I60" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="9">
         <v>100.4</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>41913</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>0.8</v>
       </c>
       <c r="C61" s="1">
@@ -2779,21 +2793,21 @@
       <c r="G61" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="13">
         <v>-5.1236979000000002E-2</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J61" s="10">
+      <c r="I61" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" s="9">
         <v>99.6</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>-0.5</v>
       </c>
       <c r="C62" s="1">
@@ -2811,21 +2825,21 @@
       <c r="G62" s="1">
         <v>6.2</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="13">
         <v>1.4017342260000001</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="10">
+      <c r="I62" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J62" s="9">
         <v>99.3</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>42095</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>0.8</v>
       </c>
       <c r="C63" s="1">
@@ -2843,21 +2857,21 @@
       <c r="G63" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="13">
         <v>0.61928616199999997</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J63" s="10">
+      <c r="I63" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="9">
         <v>100.3</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>0.4</v>
       </c>
       <c r="C64" s="1">
@@ -2875,21 +2889,21 @@
       <c r="G64" s="1">
         <v>5.6</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="13">
         <v>0.34922859699999997</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J64" s="10">
+      <c r="I64" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" s="9">
         <v>100.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>42278</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>0.4</v>
       </c>
       <c r="C65" s="1">
@@ -2907,21 +2921,21 @@
       <c r="G65" s="1">
         <v>4.5</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="13">
         <v>0.48434283</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J65" s="10">
+      <c r="I65" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>42370</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>0.8</v>
       </c>
       <c r="C66" s="1">
@@ -2939,21 +2953,21 @@
       <c r="G66" s="1">
         <v>4.8</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="13">
         <v>-1.1341777000000001E-2</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J66" s="10">
+      <c r="I66" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="9">
         <v>100.2</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>42461</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>0.5</v>
       </c>
       <c r="C67" s="1">
@@ -2971,21 +2985,21 @@
       <c r="G67" s="1">
         <v>3.9</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="13">
         <v>0.21672678200000001</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="10">
+      <c r="I67" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J67" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>0.2</v>
       </c>
       <c r="C68" s="1">
@@ -3003,21 +3017,21 @@
       <c r="G68" s="1">
         <v>3.5</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="13">
         <v>0.72955927700000001</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J68" s="10">
+      <c r="I68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" s="9">
         <v>99.2</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>42644</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>0.4</v>
       </c>
       <c r="C69" s="1">
@@ -3035,21 +3049,21 @@
       <c r="G69" s="1">
         <v>5.3</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="13">
         <v>0.75536793800000002</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J69" s="10">
+      <c r="I69" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J69" s="9">
         <v>101.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>42736</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>1.2</v>
       </c>
       <c r="C70" s="1">
@@ -3067,21 +3081,21 @@
       <c r="G70" s="1">
         <v>4</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="13">
         <v>-0.225438633</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J70" s="10">
+      <c r="I70" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J70" s="9">
         <v>101.4</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>42826</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>0.9</v>
       </c>
       <c r="C71" s="1">
@@ -3099,21 +3113,21 @@
       <c r="G71" s="1">
         <v>6.8</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="13">
         <v>9.5723476000000002E-2</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J71" s="10">
+      <c r="I71" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" s="9">
         <v>102.3</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42917</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>0.6</v>
       </c>
       <c r="C72" s="1">
@@ -3131,21 +3145,21 @@
       <c r="G72" s="1">
         <v>6.4</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="13">
         <v>0.17080437100000001</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J72" s="10">
+      <c r="I72" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43009</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>0.9</v>
       </c>
       <c r="C73" s="1">
@@ -3163,21 +3177,21 @@
       <c r="G73" s="1">
         <v>5.6</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="13">
         <v>0.300921771</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J73" s="10">
+      <c r="I73" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J73" s="9">
         <v>102.3</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>-0.6</v>
       </c>
       <c r="C74" s="1">
@@ -3195,21 +3209,21 @@
       <c r="G74" s="1">
         <v>4.8</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="13">
         <v>1.696573431</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J74" s="10">
+      <c r="I74" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="9">
         <v>103.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43191</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>0.8</v>
       </c>
       <c r="C75" s="1">
@@ -3227,21 +3241,21 @@
       <c r="G75" s="1">
         <v>3.1</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="13">
         <v>0.307884873</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J75" s="10">
+      <c r="I75" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75" s="9">
         <v>102.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43282</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>-0.9</v>
       </c>
       <c r="C76" s="1">
@@ -3259,21 +3273,21 @@
       <c r="G76" s="1">
         <v>5</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="13">
         <v>2.071250934</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J76" s="10">
+      <c r="I76" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J76" s="9">
         <v>101.3</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43374</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>0.9</v>
       </c>
       <c r="C77" s="1">
@@ -3291,21 +3305,21 @@
       <c r="G77" s="1">
         <v>3.7</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="13">
         <v>-0.10087025299999999</v>
       </c>
-      <c r="I77" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J77" s="10">
+      <c r="I77" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J77" s="9">
         <v>100.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43466</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>0.7</v>
       </c>
       <c r="C78" s="1">
@@ -3323,21 +3337,21 @@
       <c r="G78" s="1">
         <v>5.5</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="13">
         <v>0.859144515</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J78" s="10">
+      <c r="I78" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J78" s="9">
         <v>99.7</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43556</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="12">
         <v>0</v>
       </c>
       <c r="C79" s="1">
@@ -3355,21 +3369,21 @@
       <c r="G79" s="1">
         <v>3.9</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="13">
         <v>1.2532962050000001</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J79" s="10">
+      <c r="I79" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J79" s="9">
         <v>99.9</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43647</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="12">
         <v>0</v>
       </c>
       <c r="C80" s="1">
@@ -3387,21 +3401,21 @@
       <c r="G80" s="1">
         <v>2.1</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="13">
         <v>0.96502109999999997</v>
       </c>
-      <c r="I80" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J80" s="10">
+      <c r="I80" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J80" s="9">
         <v>99.9</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43739</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="12">
         <v>0.3</v>
       </c>
       <c r="C81" s="1">
@@ -3419,21 +3433,21 @@
       <c r="G81" s="1">
         <v>2</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="13">
         <v>-0.444042086</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J81" s="10">
+      <c r="I81" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J81" s="9">
         <v>99.2</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43831</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="12">
         <v>-1.8</v>
       </c>
       <c r="C82" s="1">
@@ -3451,21 +3465,21 @@
       <c r="G82" s="1">
         <v>-0.9</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="13">
         <v>2.3199836079999998</v>
       </c>
-      <c r="I82" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J82" s="10">
+      <c r="I82" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J82" s="9">
         <v>100.1</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43922</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="12">
         <v>-9.1999999999999993</v>
       </c>
       <c r="C83" s="1">
@@ -3483,21 +3497,21 @@
       <c r="G83" s="1">
         <v>-17.5</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="13">
         <v>5.1741168350000004</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="10">
+      <c r="I83" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" s="9">
         <v>84.3</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44013</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="12">
         <v>8.9</v>
       </c>
       <c r="C84" s="1">
@@ -3515,21 +3529,21 @@
       <c r="G84" s="1">
         <v>-9.9</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="13">
         <v>-5.2851272979999999</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J84" s="10">
+      <c r="I84" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J84" s="9">
         <v>97.6</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44105</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="12">
         <v>0.8</v>
       </c>
       <c r="C85" s="1">
@@ -3547,21 +3561,21 @@
       <c r="G85" s="1">
         <v>-7.4</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="13">
         <v>0.38957438799999999</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J85" s="10">
+      <c r="I85" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J85" s="9">
         <v>101.3</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44197</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="12">
         <v>-1.3</v>
       </c>
       <c r="C86" s="1">
@@ -3579,21 +3593,21 @@
       <c r="G86" s="1">
         <v>-2.5</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="13">
         <v>0.84115114099999999</v>
       </c>
-      <c r="I86" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J86" s="10">
+      <c r="I86" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J86" s="9">
         <v>100.9</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44287</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="12">
         <v>2.2000000000000002</v>
       </c>
       <c r="C87" s="1">
@@ -3611,21 +3625,21 @@
       <c r="G87" s="1">
         <v>19.5</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="13">
         <v>-1.173164289</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J87" s="10">
+      <c r="I87" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J87" s="9">
         <v>100.1</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44378</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="12">
         <v>0.7</v>
       </c>
       <c r="C88" s="1">
@@ -3643,21 +3657,21 @@
       <c r="G88" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="13">
         <v>1.967425395</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J88" s="10">
+      <c r="I88" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="9">
         <v>99.8</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44470</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="12">
         <v>0</v>
       </c>
       <c r="C89" s="1">
@@ -3675,21 +3689,21 @@
       <c r="G89" s="1">
         <v>11.3</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="13">
         <v>1.1958062629999999</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J89" s="10">
+      <c r="I89" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J89" s="9">
         <v>99.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44562</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="12">
         <v>1</v>
       </c>
       <c r="C90" s="1">
@@ -3707,21 +3721,21 @@
       <c r="G90" s="1">
         <v>6.8</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="13">
         <v>0.44063753</v>
       </c>
-      <c r="I90" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J90" s="10">
+      <c r="I90" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J90" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44652</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="12">
         <v>-0.1</v>
       </c>
       <c r="C91" s="1">
@@ -3739,21 +3753,21 @@
       <c r="G91" s="1">
         <v>7.7</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="13">
         <v>-1.1231299999999999E-4</v>
       </c>
-      <c r="I91" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J91" s="10">
+      <c r="I91" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J91" s="9">
         <v>98.3</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44743</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="12">
         <v>0.4</v>
       </c>
       <c r="C92" s="1">
@@ -3771,21 +3785,21 @@
       <c r="G92" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="13">
         <v>1.1345507189999999</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J92" s="10">
+      <c r="I92" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J92" s="9">
         <v>98.5</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44835</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="12">
         <v>-0.4</v>
       </c>
       <c r="C93" s="1">
@@ -3803,21 +3817,21 @@
       <c r="G93" s="1">
         <v>2.6</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="13">
         <v>2.8696497490000001</v>
       </c>
-      <c r="I93" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J93" s="10">
+      <c r="I93" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J93" s="9">
         <v>99.2</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44927</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="12">
         <v>0.1</v>
       </c>
       <c r="C94" s="1">
@@ -3835,21 +3849,21 @@
       <c r="G94" s="1">
         <v>0.3</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="13">
         <v>2.5742279589999999</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J94" s="10">
+      <c r="I94" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J94" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45017</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="12">
         <v>0</v>
       </c>
       <c r="C95" s="1">
@@ -3867,21 +3881,21 @@
       <c r="G95" s="1">
         <v>-1.8</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="13">
         <v>9.2769905E-2</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J95" s="10">
+      <c r="I95" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J95" s="9">
         <v>97.3</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45108</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="12">
         <v>0</v>
       </c>
       <c r="C96" s="1">
@@ -3899,21 +3913,21 @@
       <c r="G96" s="1">
         <v>-5.3</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="13">
         <v>1.5655721570000001</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J96" s="10">
+      <c r="I96" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J96" s="9">
         <v>95.4</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45200</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="12">
         <v>-0.3</v>
       </c>
       <c r="D97" s="1"/>
@@ -3926,599 +3940,599 @@
       <c r="G97" s="1">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="I97" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J97" s="10">
+      <c r="I97" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J97" s="9">
         <v>96.7</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D98" s="1"/>
-      <c r="J98" s="11"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D99" s="1"/>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D100" s="1"/>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D101" s="1"/>
-      <c r="J101" s="11"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D102" s="1"/>
-      <c r="J102" s="11"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D103" s="1"/>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D104" s="1"/>
-      <c r="J104" s="11"/>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D105" s="1"/>
-      <c r="J105" s="11"/>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D106" s="1"/>
-      <c r="J106" s="11"/>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D107" s="1"/>
-      <c r="J107" s="11"/>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
-      <c r="J108" s="11"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="J109" s="11"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="J110" s="11"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="J111" s="11"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="J112" s="11"/>
-    </row>
-    <row r="113" spans="10:10">
-      <c r="J113" s="11"/>
-    </row>
-    <row r="114" spans="10:10">
-      <c r="J114" s="11"/>
-    </row>
-    <row r="115" spans="10:10">
-      <c r="J115" s="11"/>
-    </row>
-    <row r="116" spans="10:10">
-      <c r="J116" s="11"/>
-    </row>
-    <row r="117" spans="10:10">
-      <c r="J117" s="11"/>
-    </row>
-    <row r="118" spans="10:10">
-      <c r="J118" s="11"/>
-    </row>
-    <row r="119" spans="10:10">
-      <c r="J119" s="11"/>
-    </row>
-    <row r="120" spans="10:10">
-      <c r="J120" s="11"/>
-    </row>
-    <row r="121" spans="10:10">
-      <c r="J121" s="11"/>
-    </row>
-    <row r="122" spans="10:10">
-      <c r="J122" s="11"/>
-    </row>
-    <row r="123" spans="10:10">
-      <c r="J123" s="11"/>
-    </row>
-    <row r="124" spans="10:10">
-      <c r="J124" s="11"/>
-    </row>
-    <row r="125" spans="10:10">
-      <c r="J125" s="11"/>
-    </row>
-    <row r="126" spans="10:10">
-      <c r="J126" s="11"/>
-    </row>
-    <row r="127" spans="10:10">
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" spans="10:10">
-      <c r="J128" s="11"/>
-    </row>
-    <row r="129" spans="10:10">
-      <c r="J129" s="11"/>
-    </row>
-    <row r="130" spans="10:10">
-      <c r="J130" s="11"/>
-    </row>
-    <row r="131" spans="10:10">
-      <c r="J131" s="11"/>
-    </row>
-    <row r="132" spans="10:10">
-      <c r="J132" s="11"/>
-    </row>
-    <row r="133" spans="10:10">
-      <c r="J133" s="11"/>
-    </row>
-    <row r="134" spans="10:10">
-      <c r="J134" s="11"/>
-    </row>
-    <row r="135" spans="10:10">
-      <c r="J135" s="11"/>
-    </row>
-    <row r="136" spans="10:10">
-      <c r="J136" s="11"/>
-    </row>
-    <row r="137" spans="10:10">
-      <c r="J137" s="11"/>
-    </row>
-    <row r="138" spans="10:10">
-      <c r="J138" s="11"/>
-    </row>
-    <row r="139" spans="10:10">
-      <c r="J139" s="11"/>
-    </row>
-    <row r="140" spans="10:10">
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" spans="10:10">
-      <c r="J141" s="11"/>
-    </row>
-    <row r="142" spans="10:10">
-      <c r="J142" s="11"/>
-    </row>
-    <row r="143" spans="10:10">
-      <c r="J143" s="11"/>
-    </row>
-    <row r="144" spans="10:10">
-      <c r="J144" s="11"/>
-    </row>
-    <row r="145" spans="10:10">
-      <c r="J145" s="11"/>
-    </row>
-    <row r="146" spans="10:10">
-      <c r="J146" s="11"/>
-    </row>
-    <row r="147" spans="10:10">
-      <c r="J147" s="11"/>
-    </row>
-    <row r="148" spans="10:10">
-      <c r="J148" s="11"/>
-    </row>
-    <row r="149" spans="10:10">
-      <c r="J149" s="11"/>
-    </row>
-    <row r="150" spans="10:10">
-      <c r="J150" s="11"/>
-    </row>
-    <row r="151" spans="10:10">
-      <c r="J151" s="11"/>
-    </row>
-    <row r="152" spans="10:10">
-      <c r="J152" s="11"/>
-    </row>
-    <row r="153" spans="10:10">
-      <c r="J153" s="11"/>
-    </row>
-    <row r="154" spans="10:10">
-      <c r="J154" s="11"/>
-    </row>
-    <row r="155" spans="10:10">
-      <c r="J155" s="11"/>
-    </row>
-    <row r="156" spans="10:10">
-      <c r="J156" s="11"/>
-    </row>
-    <row r="157" spans="10:10">
-      <c r="J157" s="11"/>
-    </row>
-    <row r="158" spans="10:10">
-      <c r="J158" s="11"/>
-    </row>
-    <row r="159" spans="10:10">
-      <c r="J159" s="11"/>
-    </row>
-    <row r="160" spans="10:10">
-      <c r="J160" s="11"/>
-    </row>
-    <row r="161" spans="10:10">
-      <c r="J161" s="11"/>
-    </row>
-    <row r="162" spans="10:10">
-      <c r="J162" s="11"/>
-    </row>
-    <row r="163" spans="10:10">
-      <c r="J163" s="11"/>
-    </row>
-    <row r="164" spans="10:10">
-      <c r="J164" s="11"/>
-    </row>
-    <row r="165" spans="10:10">
-      <c r="J165" s="11"/>
-    </row>
-    <row r="166" spans="10:10">
-      <c r="J166" s="11"/>
-    </row>
-    <row r="167" spans="10:10">
-      <c r="J167" s="11"/>
-    </row>
-    <row r="168" spans="10:10">
-      <c r="J168" s="11"/>
-    </row>
-    <row r="169" spans="10:10">
-      <c r="J169" s="11"/>
-    </row>
-    <row r="170" spans="10:10">
-      <c r="J170" s="11"/>
-    </row>
-    <row r="171" spans="10:10">
-      <c r="J171" s="11"/>
-    </row>
-    <row r="172" spans="10:10">
-      <c r="J172" s="11"/>
-    </row>
-    <row r="173" spans="10:10">
-      <c r="J173" s="11"/>
-    </row>
-    <row r="174" spans="10:10">
-      <c r="J174" s="11"/>
-    </row>
-    <row r="175" spans="10:10">
-      <c r="J175" s="11"/>
-    </row>
-    <row r="176" spans="10:10">
-      <c r="J176" s="11"/>
-    </row>
-    <row r="177" spans="10:10">
-      <c r="J177" s="11"/>
-    </row>
-    <row r="178" spans="10:10">
-      <c r="J178" s="11"/>
-    </row>
-    <row r="179" spans="10:10">
-      <c r="J179" s="11"/>
-    </row>
-    <row r="180" spans="10:10">
-      <c r="J180" s="11"/>
-    </row>
-    <row r="181" spans="10:10">
-      <c r="J181" s="11"/>
-    </row>
-    <row r="182" spans="10:10">
-      <c r="J182" s="11"/>
-    </row>
-    <row r="183" spans="10:10">
-      <c r="J183" s="11"/>
-    </row>
-    <row r="184" spans="10:10">
-      <c r="J184" s="11"/>
-    </row>
-    <row r="185" spans="10:10">
-      <c r="J185" s="11"/>
-    </row>
-    <row r="186" spans="10:10">
-      <c r="J186" s="11"/>
-    </row>
-    <row r="187" spans="10:10">
-      <c r="J187" s="11"/>
-    </row>
-    <row r="188" spans="10:10">
-      <c r="J188" s="11"/>
-    </row>
-    <row r="189" spans="10:10">
-      <c r="J189" s="11"/>
-    </row>
-    <row r="190" spans="10:10">
-      <c r="J190" s="11"/>
-    </row>
-    <row r="191" spans="10:10">
-      <c r="J191" s="11"/>
-    </row>
-    <row r="192" spans="10:10">
-      <c r="J192" s="11"/>
-    </row>
-    <row r="193" spans="10:10">
-      <c r="J193" s="11"/>
-    </row>
-    <row r="194" spans="10:10">
-      <c r="J194" s="11"/>
-    </row>
-    <row r="195" spans="10:10">
-      <c r="J195" s="11"/>
-    </row>
-    <row r="196" spans="10:10">
-      <c r="J196" s="11"/>
-    </row>
-    <row r="197" spans="10:10">
-      <c r="J197" s="11"/>
-    </row>
-    <row r="198" spans="10:10">
-      <c r="J198" s="11"/>
-    </row>
-    <row r="199" spans="10:10">
-      <c r="J199" s="11"/>
-    </row>
-    <row r="200" spans="10:10">
-      <c r="J200" s="11"/>
-    </row>
-    <row r="201" spans="10:10">
-      <c r="J201" s="11"/>
-    </row>
-    <row r="202" spans="10:10">
-      <c r="J202" s="11"/>
-    </row>
-    <row r="203" spans="10:10">
-      <c r="J203" s="11"/>
-    </row>
-    <row r="204" spans="10:10">
-      <c r="J204" s="11"/>
-    </row>
-    <row r="205" spans="10:10">
-      <c r="J205" s="11"/>
-    </row>
-    <row r="206" spans="10:10">
-      <c r="J206" s="11"/>
-    </row>
-    <row r="207" spans="10:10">
-      <c r="J207" s="11"/>
-    </row>
-    <row r="208" spans="10:10">
-      <c r="J208" s="11"/>
-    </row>
-    <row r="209" spans="10:10">
-      <c r="J209" s="11"/>
-    </row>
-    <row r="210" spans="10:10">
-      <c r="J210" s="11"/>
-    </row>
-    <row r="211" spans="10:10">
-      <c r="J211" s="11"/>
-    </row>
-    <row r="212" spans="10:10">
-      <c r="J212" s="11"/>
-    </row>
-    <row r="213" spans="10:10">
-      <c r="J213" s="11"/>
-    </row>
-    <row r="214" spans="10:10">
-      <c r="J214" s="11"/>
-    </row>
-    <row r="215" spans="10:10">
-      <c r="J215" s="11"/>
-    </row>
-    <row r="216" spans="10:10">
-      <c r="J216" s="11"/>
-    </row>
-    <row r="217" spans="10:10">
-      <c r="J217" s="11"/>
-    </row>
-    <row r="218" spans="10:10">
-      <c r="J218" s="11"/>
-    </row>
-    <row r="219" spans="10:10">
-      <c r="J219" s="11"/>
-    </row>
-    <row r="220" spans="10:10">
-      <c r="J220" s="11"/>
-    </row>
-    <row r="221" spans="10:10">
-      <c r="J221" s="11"/>
-    </row>
-    <row r="222" spans="10:10">
-      <c r="J222" s="11"/>
-    </row>
-    <row r="223" spans="10:10">
-      <c r="J223" s="11"/>
-    </row>
-    <row r="224" spans="10:10">
-      <c r="J224" s="11"/>
-    </row>
-    <row r="225" spans="10:10">
-      <c r="J225" s="11"/>
-    </row>
-    <row r="226" spans="10:10">
-      <c r="J226" s="11"/>
-    </row>
-    <row r="227" spans="10:10">
-      <c r="J227" s="11"/>
-    </row>
-    <row r="228" spans="10:10">
-      <c r="J228" s="11"/>
-    </row>
-    <row r="229" spans="10:10">
-      <c r="J229" s="11"/>
-    </row>
-    <row r="230" spans="10:10">
-      <c r="J230" s="11"/>
-    </row>
-    <row r="231" spans="10:10">
-      <c r="J231" s="11"/>
-    </row>
-    <row r="232" spans="10:10">
-      <c r="J232" s="11"/>
-    </row>
-    <row r="233" spans="10:10">
-      <c r="J233" s="11"/>
-    </row>
-    <row r="234" spans="10:10">
-      <c r="J234" s="11"/>
-    </row>
-    <row r="235" spans="10:10">
-      <c r="J235" s="11"/>
-    </row>
-    <row r="236" spans="10:10">
-      <c r="J236" s="11"/>
-    </row>
-    <row r="237" spans="10:10">
-      <c r="J237" s="11"/>
-    </row>
-    <row r="238" spans="10:10">
-      <c r="J238" s="11"/>
-    </row>
-    <row r="239" spans="10:10">
-      <c r="J239" s="11"/>
-    </row>
-    <row r="240" spans="10:10">
-      <c r="J240" s="11"/>
-    </row>
-    <row r="241" spans="10:10">
-      <c r="J241" s="11"/>
-    </row>
-    <row r="242" spans="10:10">
-      <c r="J242" s="11"/>
-    </row>
-    <row r="243" spans="10:10">
-      <c r="J243" s="11"/>
-    </row>
-    <row r="244" spans="10:10">
-      <c r="J244" s="11"/>
-    </row>
-    <row r="245" spans="10:10">
-      <c r="J245" s="11"/>
-    </row>
-    <row r="246" spans="10:10">
-      <c r="J246" s="11"/>
-    </row>
-    <row r="247" spans="10:10">
-      <c r="J247" s="11"/>
-    </row>
-    <row r="248" spans="10:10">
-      <c r="J248" s="11"/>
-    </row>
-    <row r="249" spans="10:10">
-      <c r="J249" s="11"/>
-    </row>
-    <row r="250" spans="10:10">
-      <c r="J250" s="11"/>
-    </row>
-    <row r="251" spans="10:10">
-      <c r="J251" s="11"/>
-    </row>
-    <row r="252" spans="10:10">
-      <c r="J252" s="11"/>
-    </row>
-    <row r="253" spans="10:10">
-      <c r="J253" s="11"/>
-    </row>
-    <row r="254" spans="10:10">
-      <c r="J254" s="11"/>
-    </row>
-    <row r="255" spans="10:10">
-      <c r="J255" s="11"/>
-    </row>
-    <row r="256" spans="10:10">
-      <c r="J256" s="11"/>
-    </row>
-    <row r="257" spans="10:10">
-      <c r="J257" s="11"/>
-    </row>
-    <row r="258" spans="10:10">
-      <c r="J258" s="11"/>
-    </row>
-    <row r="259" spans="10:10">
-      <c r="J259" s="11"/>
-    </row>
-    <row r="260" spans="10:10">
-      <c r="J260" s="11"/>
-    </row>
-    <row r="261" spans="10:10">
-      <c r="J261" s="11"/>
-    </row>
-    <row r="262" spans="10:10">
-      <c r="J262" s="11"/>
-    </row>
-    <row r="263" spans="10:10">
-      <c r="J263" s="11"/>
-    </row>
-    <row r="264" spans="10:10">
-      <c r="J264" s="11"/>
-    </row>
-    <row r="265" spans="10:10">
-      <c r="J265" s="11"/>
-    </row>
-    <row r="266" spans="10:10">
-      <c r="J266" s="11"/>
-    </row>
-    <row r="267" spans="10:10">
-      <c r="J267" s="11"/>
-    </row>
-    <row r="268" spans="10:10">
-      <c r="J268" s="11"/>
-    </row>
-    <row r="269" spans="10:10">
-      <c r="J269" s="11"/>
-    </row>
-    <row r="270" spans="10:10">
-      <c r="J270" s="11"/>
-    </row>
-    <row r="271" spans="10:10">
-      <c r="J271" s="11"/>
-    </row>
-    <row r="272" spans="10:10">
-      <c r="J272" s="11"/>
-    </row>
-    <row r="273" spans="10:10">
-      <c r="J273" s="11"/>
-    </row>
-    <row r="274" spans="10:10">
-      <c r="J274" s="11"/>
-    </row>
-    <row r="275" spans="10:10">
-      <c r="J275" s="11"/>
-    </row>
-    <row r="276" spans="10:10">
-      <c r="J276" s="11"/>
-    </row>
-    <row r="277" spans="10:10">
-      <c r="J277" s="11"/>
-    </row>
-    <row r="278" spans="10:10">
-      <c r="J278" s="11"/>
-    </row>
-    <row r="279" spans="10:10">
-      <c r="J279" s="11"/>
-    </row>
-    <row r="280" spans="10:10">
-      <c r="J280" s="11"/>
-    </row>
-    <row r="281" spans="10:10">
-      <c r="J281" s="11"/>
-    </row>
-    <row r="282" spans="10:10">
-      <c r="J282" s="11"/>
-    </row>
-    <row r="283" spans="10:10">
-      <c r="J283" s="11"/>
-    </row>
-    <row r="284" spans="10:10">
-      <c r="J284" s="11"/>
-    </row>
-    <row r="285" spans="10:10">
-      <c r="J285" s="11"/>
-    </row>
-    <row r="286" spans="10:10">
-      <c r="J286" s="11"/>
-    </row>
-    <row r="287" spans="10:10">
-      <c r="J287" s="11"/>
-    </row>
-    <row r="288" spans="10:10">
-      <c r="J288" s="11"/>
-    </row>
-    <row r="289" spans="10:10">
-      <c r="J289" s="11"/>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J120" s="10"/>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J129" s="10"/>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J146" s="10"/>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J150" s="10"/>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J151" s="10"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J152" s="10"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J153" s="10"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J154" s="10"/>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J155" s="10"/>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J156" s="10"/>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J157" s="10"/>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J158" s="10"/>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J159" s="10"/>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J160" s="10"/>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J161" s="10"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J162" s="10"/>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J163" s="10"/>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J164" s="10"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J165" s="10"/>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J166" s="10"/>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J167" s="10"/>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J168" s="10"/>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J169" s="10"/>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J170" s="10"/>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J171" s="10"/>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J172" s="10"/>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J173" s="10"/>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J174" s="10"/>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J175" s="10"/>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J176" s="10"/>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J177" s="10"/>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J178" s="10"/>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J179" s="10"/>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J180" s="10"/>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J181" s="10"/>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J182" s="10"/>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J183" s="10"/>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J184" s="10"/>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J186" s="10"/>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J187" s="10"/>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J188" s="10"/>
+    </row>
+    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J189" s="10"/>
+    </row>
+    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J190" s="10"/>
+    </row>
+    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J191" s="10"/>
+    </row>
+    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J192" s="10"/>
+    </row>
+    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J193" s="10"/>
+    </row>
+    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J194" s="10"/>
+    </row>
+    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J195" s="10"/>
+    </row>
+    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J196" s="10"/>
+    </row>
+    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J197" s="10"/>
+    </row>
+    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J199" s="10"/>
+    </row>
+    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J200" s="10"/>
+    </row>
+    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J201" s="10"/>
+    </row>
+    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J202" s="10"/>
+    </row>
+    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J203" s="10"/>
+    </row>
+    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J205" s="10"/>
+    </row>
+    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J206" s="10"/>
+    </row>
+    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J207" s="10"/>
+    </row>
+    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J208" s="10"/>
+    </row>
+    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J209" s="10"/>
+    </row>
+    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J210" s="10"/>
+    </row>
+    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J211" s="10"/>
+    </row>
+    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J212" s="10"/>
+    </row>
+    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J213" s="10"/>
+    </row>
+    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J214" s="10"/>
+    </row>
+    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J215" s="10"/>
+    </row>
+    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J216" s="10"/>
+    </row>
+    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J217" s="10"/>
+    </row>
+    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J218" s="10"/>
+    </row>
+    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J219" s="10"/>
+    </row>
+    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J220" s="10"/>
+    </row>
+    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J221" s="10"/>
+    </row>
+    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J222" s="10"/>
+    </row>
+    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J225" s="10"/>
+    </row>
+    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J226" s="10"/>
+    </row>
+    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J227" s="10"/>
+    </row>
+    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J228" s="10"/>
+    </row>
+    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J229" s="10"/>
+    </row>
+    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J230" s="10"/>
+    </row>
+    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J231" s="10"/>
+    </row>
+    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J232" s="10"/>
+    </row>
+    <row r="233" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J233" s="10"/>
+    </row>
+    <row r="234" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J234" s="10"/>
+    </row>
+    <row r="235" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J235" s="10"/>
+    </row>
+    <row r="236" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J236" s="10"/>
+    </row>
+    <row r="237" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J237" s="10"/>
+    </row>
+    <row r="238" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J238" s="10"/>
+    </row>
+    <row r="239" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J239" s="10"/>
+    </row>
+    <row r="240" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J240" s="10"/>
+    </row>
+    <row r="241" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J241" s="10"/>
+    </row>
+    <row r="242" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J242" s="10"/>
+    </row>
+    <row r="243" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J243" s="10"/>
+    </row>
+    <row r="244" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J244" s="10"/>
+    </row>
+    <row r="245" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J245" s="10"/>
+    </row>
+    <row r="246" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J246" s="10"/>
+    </row>
+    <row r="247" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J247" s="10"/>
+    </row>
+    <row r="248" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J248" s="10"/>
+    </row>
+    <row r="249" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J249" s="10"/>
+    </row>
+    <row r="250" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J250" s="10"/>
+    </row>
+    <row r="251" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J251" s="10"/>
+    </row>
+    <row r="252" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J252" s="10"/>
+    </row>
+    <row r="253" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J253" s="10"/>
+    </row>
+    <row r="254" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J254" s="10"/>
+    </row>
+    <row r="255" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J255" s="10"/>
+    </row>
+    <row r="256" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J256" s="10"/>
+    </row>
+    <row r="257" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J257" s="10"/>
+    </row>
+    <row r="258" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J258" s="10"/>
+    </row>
+    <row r="259" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J259" s="10"/>
+    </row>
+    <row r="260" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J260" s="10"/>
+    </row>
+    <row r="261" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J261" s="10"/>
+    </row>
+    <row r="262" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J262" s="10"/>
+    </row>
+    <row r="263" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J263" s="10"/>
+    </row>
+    <row r="264" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J264" s="10"/>
+    </row>
+    <row r="265" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J265" s="10"/>
+    </row>
+    <row r="266" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J266" s="10"/>
+    </row>
+    <row r="267" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J267" s="10"/>
+    </row>
+    <row r="268" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J268" s="10"/>
+    </row>
+    <row r="269" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J269" s="10"/>
+    </row>
+    <row r="270" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J270" s="10"/>
+    </row>
+    <row r="271" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J271" s="10"/>
+    </row>
+    <row r="272" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J272" s="10"/>
+    </row>
+    <row r="273" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J273" s="10"/>
+    </row>
+    <row r="274" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J274" s="10"/>
+    </row>
+    <row r="275" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J275" s="10"/>
+    </row>
+    <row r="276" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J276" s="10"/>
+    </row>
+    <row r="277" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J277" s="10"/>
+    </row>
+    <row r="278" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J278" s="10"/>
+    </row>
+    <row r="279" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J279" s="10"/>
+    </row>
+    <row r="280" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J280" s="10"/>
+    </row>
+    <row r="281" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J281" s="10"/>
+    </row>
+    <row r="282" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J282" s="10"/>
+    </row>
+    <row r="283" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J283" s="10"/>
+    </row>
+    <row r="284" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J284" s="10"/>
+    </row>
+    <row r="285" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J285" s="10"/>
+    </row>
+    <row r="286" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J286" s="10"/>
+    </row>
+    <row r="287" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J287" s="10"/>
+    </row>
+    <row r="288" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J288" s="10"/>
+    </row>
+    <row r="289" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J289" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4533,107 +4547,107 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -4651,57 +4665,57 @@
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C2" s="4">
         <v>36892</v>
       </c>
@@ -4717,7 +4731,7 @@
       <c r="I2" s="5">
         <v>36526</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>59.34</v>
       </c>
       <c r="L2" s="5">
@@ -4727,7 +4741,7 @@
         <v>65.861000000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" s="4">
         <v>37257</v>
       </c>
@@ -4743,7 +4757,7 @@
       <c r="I3" s="5">
         <v>36892</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>58.192999999999998</v>
       </c>
       <c r="L3" s="5">
@@ -4753,7 +4767,7 @@
         <v>64.034999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" s="4">
         <v>37622</v>
       </c>
@@ -4769,7 +4783,7 @@
       <c r="I4" s="5">
         <v>37257</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>59.945999999999998</v>
       </c>
       <c r="L4" s="5">
@@ -4779,7 +4793,7 @@
         <v>61.822000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>37987</v>
       </c>
@@ -4795,7 +4809,7 @@
       <c r="I5" s="5">
         <v>37622</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>63.537999999999997</v>
       </c>
       <c r="L5" s="5">
@@ -4805,7 +4819,7 @@
         <v>59.923999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>38353</v>
       </c>
@@ -4821,7 +4835,7 @@
       <c r="I6" s="5">
         <v>37987</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>65.200999999999993</v>
       </c>
       <c r="L6" s="5">
@@ -4831,7 +4845,7 @@
         <v>58.597000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>38718</v>
       </c>
@@ -4847,7 +4861,7 @@
       <c r="I7" s="5">
         <v>38353</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>67.546000000000006</v>
       </c>
       <c r="L7" s="5">
@@ -4857,7 +4871,7 @@
         <v>57.502000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>39083</v>
       </c>
@@ -4867,11 +4881,11 @@
       <c r="I8" s="5">
         <v>38718</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>66.887</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>39448</v>
       </c>
@@ -4881,11 +4895,11 @@
       <c r="I9" s="5">
         <v>39083</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>64.158000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>39814</v>
       </c>
@@ -4895,11 +4909,11 @@
       <c r="I10" s="5">
         <v>39448</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>65.682000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>40179</v>
       </c>
@@ -4909,11 +4923,11 @@
       <c r="I11" s="5">
         <v>39814</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>73.156999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>40544</v>
       </c>
@@ -4923,11 +4937,11 @@
       <c r="I12" s="5">
         <v>40179</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>81.995000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>40909</v>
       </c>
@@ -4937,11 +4951,11 @@
       <c r="I13" s="5">
         <v>40544</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>79.417000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>41275</v>
       </c>
@@ -4951,11 +4965,11 @@
       <c r="I14" s="5">
         <v>40909</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>80.745000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="4">
         <v>41640</v>
       </c>
@@ -4965,11 +4979,11 @@
       <c r="I15" s="5">
         <v>41275</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>78.322000000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C16" s="4">
         <v>42005</v>
       </c>
@@ -4979,11 +4993,11 @@
       <c r="I16" s="5">
         <v>41640</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>75.278999999999996</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
         <v>42370</v>
       </c>
@@ -4993,11 +5007,11 @@
       <c r="I17" s="5">
         <v>42005</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>71.947000000000003</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
         <v>42736</v>
       </c>
@@ -5007,11 +5021,11 @@
       <c r="I18" s="5">
         <v>42370</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>68.954999999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
         <v>43101</v>
       </c>
@@ -5021,11 +5035,11 @@
       <c r="I19" s="5">
         <v>42736</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
         <v>43466</v>
       </c>
@@ -5035,11 +5049,11 @@
       <c r="I20" s="5">
         <v>43101</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>61.905000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
         <v>43831</v>
       </c>
@@ -5049,11 +5063,11 @@
       <c r="I21" s="5">
         <v>43466</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>59.548999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
         <v>44197</v>
       </c>
@@ -5063,11 +5077,11 @@
       <c r="I22" s="5">
         <v>43831</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>68.745999999999995</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
         <v>44562</v>
       </c>
@@ -5081,7 +5095,7 @@
         <v>68.959999999999994</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I24" s="5">
         <v>44562</v>
       </c>
@@ -5089,9 +5103,9 @@
         <v>66.113</v>
       </c>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
